--- a/Lab8/integratedMetrics.xlsx
+++ b/Lab8/integratedMetrics.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="2360" yWindow="2680" windowWidth="23240" windowHeight="13320" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Integrated Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SCU MSIS</t>
   </si>
@@ -35,19 +36,65 @@
     <t>NYU MSIS</t>
   </si>
   <si>
-    <t>Available High-tech jobs</t>
-  </si>
-  <si>
     <t>George Washington University MSIST</t>
   </si>
   <si>
-    <t>Tuition per Credit</t>
-  </si>
-  <si>
     <t>School &amp; Program Name</t>
   </si>
   <si>
     <t>316500 </t>
+  </si>
+  <si>
+    <r>
+      <t>Available High-tech jobs</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tuition per Credit</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2,3,4</t>
+    </r>
+  </si>
+  <si>
+    <t>Job Availabilities Top Three Area</t>
+  </si>
+  <si>
+    <t>http://www.domain-b.com/infotech/itnews/20080626_cybercities_2008.html</t>
+  </si>
+  <si>
+    <t>SCU MSIS Tuition</t>
+  </si>
+  <si>
+    <t>https://www.scu.edu/admission/tuition--fees/</t>
+  </si>
+  <si>
+    <t>NYU MSIS Tuition</t>
+  </si>
+  <si>
+    <t>https://www.nyu.edu/students/student-information-and-resources/bills-payments-and-refunds/tuition-and-fee-rates/2016-2017/tandon-school-of-engineering-graduate-2016-2017.html</t>
+  </si>
+  <si>
+    <t>https://studentaccounts.gwu.edu/sites/studentaccounts.gwu.edu/files/downloads/FY18%201718%20GWSB%20RATES.pdf</t>
+  </si>
+  <si>
+    <t>GWU MSIST Tuition</t>
   </si>
 </sst>
 </file>
@@ -63,6 +110,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -88,16 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -380,58 +423,120 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>387000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1022</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
         <v>1646</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>295800</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>295800</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1655</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
